--- a/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
+++ b/001.일정관리/WPC-1st-TOM-2025_주단위상세일정.xlsx
@@ -617,7 +617,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +672,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -836,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +945,12 @@
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,29 +972,47 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1297,7 +1327,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -1318,41 +1348,41 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1"/>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1460,67 +1490,67 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="51">
         <v>45834</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="42">
+      <c r="D8" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="51">
         <v>45835</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="53">
         <f>DAYS360(C8,E8)+1</f>
         <v>2</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="46" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="56" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="44">
         <v>45838</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="44">
         <v>45842</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="46">
         <f t="shared" ref="F9:F27" si="0">DAYS360(C9,E9)+1</f>
         <v>5</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="56.45" customHeight="1">
       <c r="B10" s="17" t="s">
@@ -2195,32 +2225,32 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
     </row>
     <row r="32" spans="2:12" s="5" customFormat="1" ht="25.7">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" s="2" t="s">
@@ -2237,7 +2267,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
